--- a/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_架构组.xlsx
+++ b/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_架构组.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="5490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.1.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.1.7新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="定时器" sheetId="10" r:id="rId2"/>
     <sheet name="上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="配置文件（测试环境）" sheetId="9" r:id="rId4"/>
@@ -17,20 +17,19 @@
     <sheet name="数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.7 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.7新特性|Fix Bug'!$A$1:$U$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -255,36 +254,159 @@
     <t>紧急</t>
   </si>
   <si>
+    <t>所有项目Memcached缓存一致性Hash环配置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>bs,messages,partner,partnerpc,payapi,
+renter,renterembed,renterpc,tasktracker</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring-cache.xml,
+systemconfig.properties</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>九天</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.7</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>#memcached-server
+memcached.memClientBiz1.host=
+memcached.memClientBiz1.port=
+memcached.memClientBiz1.weight=10
+memcached.memClientBiz2.host=
+memcached.memClientBiz2.port=
+memcached.memClientBiz2.weight=10
+memcached.memClientBiz3.host=
+memcached.memClientBiz3.port=
+memcached.memClientBiz3.weight=10
+memcached.memClientSearch1.host=
+memcached.memClientSearch1.port=
+memcached.memClientSearch1.weight=10
+memcached.memClientSearch2.host=
+memcached.memClientSearch2.port=
+memcached.memClientSearch2.weight=10</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memcached
+一致性Hash环
+配置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>九天</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>host,port请运维根据
+实际服务器情况配置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-messages</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-partner</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-partnerpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-payapi</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-renter</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-renterembed</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-renterpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoda-tasktracker</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>自测验证</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>修复敏感词过滤占用CPU问题</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Fix Bugs</t>
   </si>
   <si>
-    <t>是</t>
+    <t>全部项目</t>
   </si>
   <si>
     <t>冯银鹏</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构组</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部项目</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -970,7 +1092,7 @@
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1339,25 +1461,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="27" style="33" customWidth="1"/>
+    <col min="4" max="4" width="34.25" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="47" style="32" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="33" customWidth="1"/>
+    <col min="11" max="11" width="21" style="33" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="32" customWidth="1"/>
     <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
     <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
@@ -1372,7 +1494,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1453,65 +1575,103 @@
       <c r="E2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>76</v>
+      <c r="F2" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>72</v>
       </c>
       <c r="H2" s="39">
-        <v>41255</v>
+        <v>42714</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>72</v>
       </c>
       <c r="J2" s="39">
-        <v>41255</v>
-      </c>
-      <c r="K2" s="38"/>
+        <v>42716</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>74</v>
+      </c>
       <c r="L2" s="47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="47"/>
+        <v>76</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="39">
+        <v>42716</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>78</v>
+      </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
       <c r="T2" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="53"/>
+        <v>79</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>100</v>
+      </c>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="39">
+        <v>41255</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="39">
+        <v>41255</v>
+      </c>
       <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="L3" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="N3" s="38"/>
       <c r="O3" s="47"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
-      <c r="T3" s="52"/>
+      <c r="T3" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="U3" s="55"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1535,7 +1695,7 @@
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1559,7 +1719,7 @@
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1583,7 +1743,7 @@
       <c r="U6" s="55"/>
       <c r="V6" s="54"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1607,7 +1767,7 @@
       <c r="U7" s="55"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1631,7 +1791,7 @@
       <c r="U8" s="55"/>
       <c r="V8" s="54"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1655,7 +1815,7 @@
       <c r="U9" s="55"/>
       <c r="V9" s="54"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1679,7 +1839,7 @@
       <c r="U10" s="55"/>
       <c r="V10" s="54"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1703,7 +1863,7 @@
       <c r="U11" s="55"/>
       <c r="V11" s="54"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1727,7 +1887,7 @@
       <c r="U12" s="55"/>
       <c r="V12" s="54"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -1751,7 +1911,7 @@
       <c r="U13" s="55"/>
       <c r="V13" s="54"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1775,7 +1935,7 @@
       <c r="U14" s="55"/>
       <c r="V14" s="54"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1799,7 +1959,7 @@
       <c r="U15" s="55"/>
       <c r="V15" s="54"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1823,7 +1983,7 @@
       <c r="U16" s="55"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1847,7 +2007,7 @@
       <c r="U17" s="57"/>
       <c r="V17" s="54"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1870,7 +2030,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1893,7 +2053,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1916,7 +2076,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="45"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1939,7 +2099,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="55"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -1962,7 +2122,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1985,7 +2145,7 @@
       <c r="T23" s="44"/>
       <c r="U23" s="55"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2008,7 +2168,7 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2031,7 +2191,7 @@
       <c r="T25" s="60"/>
       <c r="U25" s="59"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2054,7 +2214,7 @@
       <c r="T26" s="61"/>
       <c r="U26" s="59"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2077,7 +2237,7 @@
       <c r="T27" s="60"/>
       <c r="U27" s="59"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2100,7 +2260,7 @@
       <c r="T28" s="60"/>
       <c r="U28" s="59"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2123,7 +2283,7 @@
       <c r="T29" s="56"/>
       <c r="U29" s="47"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2146,7 +2306,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="55"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2169,7 +2329,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2192,7 +2352,7 @@
       <c r="T32" s="44"/>
       <c r="U32" s="55"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2215,7 +2375,7 @@
       <c r="T33" s="60"/>
       <c r="U33" s="59"/>
     </row>
-    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="49.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2240,7 +2400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2263,7 +2423,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="55"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2286,7 +2446,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="55"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2309,7 +2469,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="55"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2332,7 +2492,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="55"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2355,7 +2515,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="55"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2378,7 +2538,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="55"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2401,7 +2561,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="55"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2424,7 +2584,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="55"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2447,7 +2607,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="55"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2470,7 +2630,7 @@
       <c r="T44" s="44"/>
       <c r="U44" s="55"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2493,7 +2653,7 @@
       <c r="T45" s="56"/>
       <c r="U45" s="55"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2516,7 +2676,7 @@
       <c r="T46" s="56"/>
       <c r="U46" s="55"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2539,7 +2699,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2562,7 +2722,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2585,7 +2745,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2608,7 +2768,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2631,7 +2791,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2654,7 +2814,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2677,7 +2837,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2700,7 +2860,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2723,7 +2883,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2746,7 +2906,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2769,7 +2929,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -2792,7 +2952,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -2815,7 +2975,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -2838,7 +2998,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -2861,7 +3021,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -2884,7 +3044,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -2907,7 +3067,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -2930,7 +3090,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -2953,7 +3113,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -2976,7 +3136,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -2999,7 +3159,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3022,7 +3182,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3045,7 +3205,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3068,7 +3228,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3091,7 +3251,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3114,7 +3274,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3137,7 +3297,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3160,7 +3320,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3183,7 +3343,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3206,7 +3366,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3229,7 +3389,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3252,7 +3412,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3275,7 +3435,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3298,7 +3458,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3321,7 +3481,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3344,7 +3504,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3367,7 +3527,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3390,7 +3550,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3413,7 +3573,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3436,7 +3596,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3459,7 +3619,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3482,7 +3642,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3505,7 +3665,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3528,7 +3688,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3551,7 +3711,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3574,7 +3734,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3597,7 +3757,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3620,7 +3780,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3643,7 +3803,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3666,7 +3826,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3689,7 +3849,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3712,7 +3872,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -3735,7 +3895,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -3758,7 +3918,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -3781,7 +3941,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -3804,7 +3964,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -3827,7 +3987,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -3850,7 +4010,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -3873,7 +4033,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -3896,7 +4056,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -3919,7 +4079,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -3942,7 +4102,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -3965,7 +4125,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -3988,7 +4148,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4011,7 +4171,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4034,7 +4194,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4057,7 +4217,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4080,7 +4240,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4103,7 +4263,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4126,7 +4286,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4149,7 +4309,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4172,7 +4332,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4195,7 +4355,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4218,7 +4378,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4241,7 +4401,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4264,7 +4424,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4287,7 +4447,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4310,7 +4470,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4333,7 +4493,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4356,7 +4516,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4379,7 +4539,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4402,7 +4562,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4425,7 +4585,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4448,7 +4608,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4471,7 +4631,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4494,7 +4654,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4517,7 +4677,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4540,7 +4700,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4563,7 +4723,7 @@
       <c r="T135" s="44"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4583,7 +4743,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4603,7 +4763,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4623,7 +4783,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4643,7 +4803,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4663,7 +4823,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4683,7 +4843,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -4703,7 +4863,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -4723,7 +4883,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -4743,7 +4903,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -4763,7 +4923,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -4783,7 +4943,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -4803,7 +4963,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -4823,7 +4983,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -4843,7 +5003,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -4863,7 +5023,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -4883,7 +5043,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -4903,7 +5063,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -4923,7 +5083,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -4943,7 +5103,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -4963,7 +5123,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -4983,7 +5143,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5003,7 +5163,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5023,7 +5183,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5043,7 +5203,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5063,7 +5223,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5083,7 +5243,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5103,7 +5263,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5123,7 +5283,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5143,7 +5303,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5163,7 +5323,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5183,7 +5343,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5203,7 +5363,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5223,7 +5383,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5243,7 +5403,7 @@
       <c r="Q169" s="45"/>
       <c r="U169" s="45"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -5269,10 +5429,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G1:G1048576 I1:I2 I5:I6 I9:I1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -5294,14 +5454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5321,7 +5481,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>54</v>
       </c>
@@ -5377,7 +5537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5397,7 +5557,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5417,7 +5577,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5444,14 +5604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
@@ -5463,7 +5623,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="77" t="s">
         <v>53</v>
       </c>
@@ -5478,7 +5638,7 @@
       <c r="J1" s="78"/>
       <c r="K1" s="78"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -5513,7 +5673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="20"/>
@@ -5526,7 +5686,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="20"/>
@@ -5539,7 +5699,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="79"/>
       <c r="B5" s="79"/>
       <c r="C5" s="20"/>
@@ -5552,7 +5712,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="81"/>
       <c r="B6" s="81"/>
       <c r="C6" s="20"/>
@@ -5565,7 +5725,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="81"/>
       <c r="B7" s="81"/>
       <c r="C7" s="20"/>
@@ -5578,7 +5738,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="81"/>
       <c r="B8" s="81"/>
       <c r="C8" s="20"/>
@@ -5591,7 +5751,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="81"/>
       <c r="B9" s="81"/>
       <c r="C9" s="20"/>
@@ -5604,7 +5764,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="20"/>
@@ -5617,7 +5777,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5644,14 +5804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5666,7 +5826,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -5683,7 +5843,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -5698,7 +5858,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -5739,7 +5899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5754,7 +5914,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5769,7 +5929,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5784,7 +5944,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5799,7 +5959,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5814,7 +5974,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5829,7 +5989,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5844,7 +6004,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5859,7 +6019,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5874,7 +6034,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5889,7 +6049,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5904,7 +6064,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5919,7 +6079,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5958,14 +6118,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5980,7 +6140,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -5997,7 +6157,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6012,7 +6172,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6053,7 +6213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6068,7 +6228,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6083,7 +6243,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6098,7 +6258,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6113,7 +6273,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6128,7 +6288,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6143,7 +6303,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6158,7 +6318,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6173,7 +6333,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6188,7 +6348,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6203,7 +6363,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6218,7 +6378,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6233,7 +6393,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6272,21 +6432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.375" customWidth="1"/>
@@ -6294,7 +6454,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -6311,7 +6471,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6326,7 +6486,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6367,157 +6527,417 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="197.25" customHeight="1">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="36.75" customHeight="1">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="41.25" customHeight="1">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="36.75" customHeight="1">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="32.25" customHeight="1">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.5" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6532,7 +6952,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="35.25" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6547,7 +6967,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="39.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6567,17 +6987,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I13">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6586,14 +7003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6610,7 +7027,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -6627,7 +7044,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6642,7 +7059,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6683,7 +7100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6698,7 +7115,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6713,7 +7130,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6728,7 +7145,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6743,7 +7160,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6758,7 +7175,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6773,7 +7190,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6788,7 +7205,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6803,7 +7220,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6818,7 +7235,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6833,7 +7250,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6848,7 +7265,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6863,7 +7280,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6902,14 +7319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -6920,7 +7337,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -6946,7 +7363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6956,7 +7373,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6966,7 +7383,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6976,7 +7393,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6986,7 +7403,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6996,7 +7413,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7006,7 +7423,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7016,7 +7433,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7026,7 +7443,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7036,7 +7453,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7046,7 +7463,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7056,7 +7473,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7066,7 +7483,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7076,7 +7493,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7086,7 +7503,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7096,7 +7513,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7106,7 +7523,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7116,7 +7533,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_架构组.xlsx
+++ b/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="5490"/>
@@ -24,13 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -277,14 +276,33 @@
   </si>
   <si>
     <t>全部项目</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>修正由于业务调整出现的对账误报错误问题</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -970,7 +988,7 @@
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1339,14 +1357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
@@ -1372,7 +1390,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="35.25" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="23.25" customHeight="1">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1487,20 +1505,44 @@
       <c r="U2" s="53"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="33">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="39">
+        <v>41255</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="39">
+        <v>41255</v>
+      </c>
       <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="L3" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="N3" s="38"/>
       <c r="O3" s="47"/>
       <c r="P3" s="39"/>
@@ -1511,7 +1553,7 @@
       <c r="U3" s="55"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1535,7 +1577,7 @@
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1559,7 +1601,7 @@
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1583,7 +1625,7 @@
       <c r="U6" s="55"/>
       <c r="V6" s="54"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1607,7 +1649,7 @@
       <c r="U7" s="55"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1631,7 +1673,7 @@
       <c r="U8" s="55"/>
       <c r="V8" s="54"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1655,7 +1697,7 @@
       <c r="U9" s="55"/>
       <c r="V9" s="54"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1679,7 +1721,7 @@
       <c r="U10" s="55"/>
       <c r="V10" s="54"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1703,7 +1745,7 @@
       <c r="U11" s="55"/>
       <c r="V11" s="54"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1727,7 +1769,7 @@
       <c r="U12" s="55"/>
       <c r="V12" s="54"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -1751,7 +1793,7 @@
       <c r="U13" s="55"/>
       <c r="V13" s="54"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1775,7 +1817,7 @@
       <c r="U14" s="55"/>
       <c r="V14" s="54"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1799,7 +1841,7 @@
       <c r="U15" s="55"/>
       <c r="V15" s="54"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1823,7 +1865,7 @@
       <c r="U16" s="55"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1847,7 +1889,7 @@
       <c r="U17" s="57"/>
       <c r="V17" s="54"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1870,7 +1912,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1893,7 +1935,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1916,7 +1958,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="45"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1939,7 +1981,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="55"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -1962,7 +2004,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1985,7 +2027,7 @@
       <c r="T23" s="44"/>
       <c r="U23" s="55"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2008,7 +2050,7 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2031,7 +2073,7 @@
       <c r="T25" s="60"/>
       <c r="U25" s="59"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2054,7 +2096,7 @@
       <c r="T26" s="61"/>
       <c r="U26" s="59"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2077,7 +2119,7 @@
       <c r="T27" s="60"/>
       <c r="U27" s="59"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2100,7 +2142,7 @@
       <c r="T28" s="60"/>
       <c r="U28" s="59"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2123,7 +2165,7 @@
       <c r="T29" s="56"/>
       <c r="U29" s="47"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2146,7 +2188,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="55"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2169,7 +2211,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2192,7 +2234,7 @@
       <c r="T32" s="44"/>
       <c r="U32" s="55"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2215,7 +2257,7 @@
       <c r="T33" s="60"/>
       <c r="U33" s="59"/>
     </row>
-    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="49.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2240,7 +2282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2263,7 +2305,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="55"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2286,7 +2328,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="55"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2309,7 +2351,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="55"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2332,7 +2374,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="55"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2355,7 +2397,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="55"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2378,7 +2420,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="55"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2401,7 +2443,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="55"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2424,7 +2466,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="55"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2447,7 +2489,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="55"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2470,7 +2512,7 @@
       <c r="T44" s="44"/>
       <c r="U44" s="55"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2493,7 +2535,7 @@
       <c r="T45" s="56"/>
       <c r="U45" s="55"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2516,7 +2558,7 @@
       <c r="T46" s="56"/>
       <c r="U46" s="55"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2539,7 +2581,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2562,7 +2604,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2585,7 +2627,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2608,7 +2650,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2631,7 +2673,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2654,7 +2696,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2677,7 +2719,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2700,7 +2742,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2723,7 +2765,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2746,7 +2788,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2769,7 +2811,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -2792,7 +2834,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -2815,7 +2857,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -2838,7 +2880,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -2861,7 +2903,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -2884,7 +2926,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -2907,7 +2949,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -2930,7 +2972,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -2953,7 +2995,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -2976,7 +3018,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -2999,7 +3041,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3022,7 +3064,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3045,7 +3087,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3068,7 +3110,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3091,7 +3133,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3114,7 +3156,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3137,7 +3179,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3160,7 +3202,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3183,7 +3225,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3206,7 +3248,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3229,7 +3271,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3252,7 +3294,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3275,7 +3317,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3298,7 +3340,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3321,7 +3363,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3344,7 +3386,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3367,7 +3409,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3390,7 +3432,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3413,7 +3455,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3436,7 +3478,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3459,7 +3501,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3482,7 +3524,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3505,7 +3547,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3528,7 +3570,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3551,7 +3593,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3574,7 +3616,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3597,7 +3639,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3620,7 +3662,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3643,7 +3685,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3666,7 +3708,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3689,7 +3731,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3712,7 +3754,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -3735,7 +3777,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -3758,7 +3800,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -3781,7 +3823,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -3804,7 +3846,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -3827,7 +3869,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -3850,7 +3892,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -3873,7 +3915,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -3896,7 +3938,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -3919,7 +3961,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -3942,7 +3984,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -3965,7 +4007,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -3988,7 +4030,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4011,7 +4053,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4034,7 +4076,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4057,7 +4099,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4080,7 +4122,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4103,7 +4145,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4126,7 +4168,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4149,7 +4191,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4172,7 +4214,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4195,7 +4237,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4218,7 +4260,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4241,7 +4283,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4264,7 +4306,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4287,7 +4329,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4310,7 +4352,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4333,7 +4375,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4356,7 +4398,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4379,7 +4421,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4402,7 +4444,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4425,7 +4467,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4448,7 +4490,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4471,7 +4513,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4494,7 +4536,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4517,7 +4559,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4540,7 +4582,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4563,7 +4605,7 @@
       <c r="T135" s="44"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4583,7 +4625,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4603,7 +4645,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4623,7 +4665,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4643,7 +4685,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4663,7 +4705,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4683,7 +4725,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -4703,7 +4745,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -4723,7 +4765,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -4743,7 +4785,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -4763,7 +4805,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -4783,7 +4825,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -4803,7 +4845,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -4823,7 +4865,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -4843,7 +4885,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -4863,7 +4905,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -4883,7 +4925,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -4903,7 +4945,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -4923,7 +4965,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -4943,7 +4985,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -4963,7 +5005,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -4983,7 +5025,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5003,7 +5045,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5023,7 +5065,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5043,7 +5085,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5063,7 +5105,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5083,7 +5125,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5103,7 +5145,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5123,7 +5165,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5143,7 +5185,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5163,7 +5205,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5183,7 +5225,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5203,7 +5245,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5223,7 +5265,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5243,7 +5285,7 @@
       <c r="Q169" s="45"/>
       <c r="U169" s="45"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -5269,10 +5311,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G1:G1048576 I1:I2 I5:I6 I9:I1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -5294,14 +5336,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5321,7 +5363,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>54</v>
       </c>
@@ -5377,7 +5419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5397,7 +5439,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5417,7 +5459,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5444,14 +5486,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
@@ -5463,7 +5505,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="77" t="s">
         <v>53</v>
       </c>
@@ -5478,7 +5520,7 @@
       <c r="J1" s="78"/>
       <c r="K1" s="78"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -5513,7 +5555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="20"/>
@@ -5526,7 +5568,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="20"/>
@@ -5539,7 +5581,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="79"/>
       <c r="B5" s="79"/>
       <c r="C5" s="20"/>
@@ -5552,7 +5594,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="81"/>
       <c r="B6" s="81"/>
       <c r="C6" s="20"/>
@@ -5565,7 +5607,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="81"/>
       <c r="B7" s="81"/>
       <c r="C7" s="20"/>
@@ -5578,7 +5620,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="81"/>
       <c r="B8" s="81"/>
       <c r="C8" s="20"/>
@@ -5591,7 +5633,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="81"/>
       <c r="B9" s="81"/>
       <c r="C9" s="20"/>
@@ -5604,7 +5646,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="20"/>
@@ -5617,7 +5659,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5644,14 +5686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5666,7 +5708,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -5683,7 +5725,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -5698,7 +5740,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -5739,7 +5781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5754,7 +5796,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5769,7 +5811,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5784,7 +5826,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5799,7 +5841,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5814,7 +5856,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5829,7 +5871,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5844,7 +5886,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5859,7 +5901,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5874,7 +5916,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5889,7 +5931,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5904,7 +5946,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5919,7 +5961,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5958,14 +6000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5980,7 +6022,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -5997,7 +6039,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6012,7 +6054,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6053,7 +6095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6068,7 +6110,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6083,7 +6125,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6098,7 +6140,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6113,7 +6155,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6128,7 +6170,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6143,7 +6185,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6158,7 +6200,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6173,7 +6215,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6188,7 +6230,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6203,7 +6245,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6218,7 +6260,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6233,7 +6275,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6272,14 +6314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6294,7 +6336,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -6311,7 +6353,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6326,7 +6368,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6367,7 +6409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6382,7 +6424,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6397,7 +6439,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6412,7 +6454,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6427,7 +6469,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6442,7 +6484,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6457,7 +6499,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6472,7 +6514,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6487,7 +6529,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6502,7 +6544,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6517,7 +6559,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6532,7 +6574,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6547,7 +6589,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6586,14 +6628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6610,7 +6652,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -6627,7 +6669,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6642,7 +6684,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6683,7 +6725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6698,7 +6740,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6713,7 +6755,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6728,7 +6770,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6743,7 +6785,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6758,7 +6800,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6773,7 +6815,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6788,7 +6830,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6803,7 +6845,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6818,7 +6860,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6833,7 +6875,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6848,7 +6890,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6863,7 +6905,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6902,14 +6944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -6920,7 +6962,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -6946,7 +6988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6956,7 +6998,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6966,7 +7008,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6976,7 +7018,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6986,7 +7028,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6996,7 +7038,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7006,7 +7048,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7016,7 +7058,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7026,7 +7068,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7036,7 +7078,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7046,7 +7088,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7056,7 +7098,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7066,7 +7108,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7076,7 +7118,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7086,7 +7128,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7096,7 +7138,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7106,7 +7148,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7116,7 +7158,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_架构组.xlsx
+++ b/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_架构组.xlsx
@@ -24,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -400,6 +400,25 @@
   </si>
   <si>
     <t>冯银鹏</t>
+  </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>修正由于业务调整出现的对账误报错误问题</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1464,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1671,20 +1690,44 @@
       <c r="U3" s="55"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="39">
+        <v>41255</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="39">
+        <v>41255</v>
+      </c>
       <c r="K4" s="38"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="38"/>
+      <c r="L4" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="N4" s="38"/>
       <c r="O4" s="47"/>
       <c r="P4" s="39"/>
@@ -1692,7 +1735,7 @@
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
       <c r="T4" s="52"/>
-      <c r="U4" s="53"/>
+      <c r="U4" s="55"/>
       <c r="V4" s="54"/>
     </row>
     <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
@@ -5429,7 +5472,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M1:M1048576">

--- a/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_架构组.xlsx
+++ b/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_架构组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.7新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -418,6 +418,11 @@
   </si>
   <si>
     <t>田志敏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>host,port请根据
+实际服务器情况配置</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1483,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
@@ -5850,8 +5855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -5942,155 +5947,415 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+    <row r="4" spans="1:13" ht="226.5" customHeight="1">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="330">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="330">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="330">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="330">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="330">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="330">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="330">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="330">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="330">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
@@ -6142,18 +6407,15 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I13">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6164,8 +6426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6256,155 +6518,415 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+    <row r="4" spans="1:13" ht="330">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="330">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="330">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="330">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="330">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="330">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="330">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="330">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="330">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="330">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
@@ -6456,17 +6978,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I13">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6478,8 +6997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
